--- a/data/sos_all_assays.xlsx
+++ b/data/sos_all_assays.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-manuscript/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DB672D-78F9-9D49-93C2-E5BFAE7B9090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0DF00E-C380-8448-9F47-74D3DB917C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27360" windowHeight="16940" xr2:uid="{CF53EE06-8C5B-1647-8D2F-E4465C7625F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="41">
   <si>
     <t>Strains</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Strain ID</t>
+  </si>
+  <si>
+    <t>40uMoglu</t>
   </si>
 </sst>
 </file>
@@ -551,11 +554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BA2D80-BF5C-8F43-B4ED-AF7A1A530888}">
-  <dimension ref="A1:U62"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R43" activeCellId="7" sqref="P43 P52 P54 P55 R55 R54 R52 R43"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1778,6 +1781,71 @@
         <v>45521</v>
       </c>
     </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="P63" t="s">
+        <v>27</v>
+      </c>
+      <c r="R63" s="3">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="P64" t="s">
+        <v>40</v>
+      </c>
+      <c r="R64" s="3">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="P65" t="s">
+        <v>40</v>
+      </c>
+      <c r="R65" s="3">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" t="s">
+        <v>40</v>
+      </c>
+      <c r="R66" s="3">
+        <v>45534</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
